--- a/data-raw/draper.safflower.xlsx
+++ b/data-raw/draper.safflower.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31F1B8-28D4-4BF5-BC9D-B2EB348F99FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="14208" windowHeight="4080"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="five" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,14 +63,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -102,7 +111,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -347,14 +356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>579</v>
       </c>
@@ -401,7 +410,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>445</v>
       </c>
@@ -448,7 +457,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>465</v>
       </c>
@@ -495,7 +504,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>455</v>
       </c>
@@ -542,7 +551,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>390</v>
       </c>
@@ -589,7 +598,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>444</v>
       </c>
@@ -636,7 +645,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>376</v>
       </c>
@@ -683,7 +692,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>433</v>
       </c>
@@ -730,7 +739,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>426</v>
       </c>
@@ -777,7 +786,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>475</v>
       </c>
@@ -824,7 +833,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>360</v>
       </c>
@@ -871,7 +880,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>335</v>
       </c>
@@ -918,7 +927,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>391</v>
       </c>
@@ -965,7 +974,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>340</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>429</v>
       </c>
@@ -1059,7 +1068,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>419</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>436</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>405</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>396</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>571</v>
       </c>
@@ -1300,14 +1309,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>265</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>226</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>181</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>235</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>235</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>282</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>285</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>290</v>
       </c>
@@ -1731,7 +1740,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>250</v>
       </c>
@@ -1784,7 +1793,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>455</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>207</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>205</v>
       </c>
@@ -1996,7 +2005,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>167</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>185</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>243</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>223</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>228</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>211</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>206</v>
       </c>
